--- a/pearson_tables/t2m_netherlands-1-3.xlsx
+++ b/pearson_tables/t2m_netherlands-1-3.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8676540479447027</v>
+        <v>0.7825124308556716</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8032057083890903</v>
+        <v>0.7836414228459794</v>
       </c>
       <c r="D2" t="n">
-        <v>0.782329883610263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7278464130128314</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6756361110829429</v>
+        <v>0.6439165853259107</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6933919380261657</v>
+        <v>-0.648508407096511</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8058632309086998</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7062749934347272</v>
+        <v>0.8350088666656292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6955185132308704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8050223884988816</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5053947600297309</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.632371501697592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8408376648322883</v>
+        <v>-0.7415668201724035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6662995513026957</v>
+        <v>0.6636865851764406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.617007814617696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.645383754254729</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5557145003374927</v>
+        <v>0.6599202187280045</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6565553500561071</v>
+        <v>-0.6818346809138498</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7853363212167931</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6162219783035456</v>
+        <v>0.6384615414198918</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6162750732242146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.486473186331085</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6248798191582595</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5827191800782152</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
